--- a/Sufficient data/forecast_summary_B099ZF7M85.xlsx
+++ b/Sufficient data/forecast_summary_B099ZF7M85.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,396 +425,608 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Prophet Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Week</t>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B099ZF7M85</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.9999999998255773</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B099ZF7M85</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
-      </c>
       <c r="D2" t="n">
         <v/>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
+      <c r="E2" t="n">
+        <v/>
+      </c>
+      <c r="F2" t="n">
+        <v/>
+      </c>
+      <c r="G2" t="n">
+        <v/>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C3" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D3" t="n">
         <v/>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
+      <c r="E3" t="n">
+        <v/>
+      </c>
+      <c r="F3" t="n">
+        <v/>
+      </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C4" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D4" t="n">
         <v/>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C5" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D5" t="n">
         <v/>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C6" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D6" t="n">
         <v/>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C7" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D7" t="n">
         <v/>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C8" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D8" t="n">
         <v/>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C9" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D9" t="n">
         <v/>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C10" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D10" t="n">
         <v/>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C11" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D11" t="n">
         <v/>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C12" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D12" t="n">
         <v/>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C13" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D13" t="n">
         <v/>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C14" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D14" t="n">
         <v/>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C15" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D15" t="n">
         <v/>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C16" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D16" t="n">
         <v/>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0.9999999998255772</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>B099ZF7M85</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GP-ARS16G37D                  </t>
-        </is>
+      <c r="C17" t="n">
+        <v>0.9999999998255772</v>
       </c>
       <c r="D17" t="n">
         <v/>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GP-ARS16G37D                  </t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B099ZF7M85.xlsx
+++ b/Sufficient data/forecast_summary_B099ZF7M85.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9999999998255773</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v/>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v/>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v/>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v/>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v/>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v/>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v/>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-04-09</t>
+          <t>2023-04-02</t>
         </is>
       </c>
     </row>
